--- a/output/analysis/dnn_results.xlsx
+++ b/output/analysis/dnn_results.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="1" sqref="T2:X39 G26"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="1" sqref="T2:X39 C50"/>
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4285,7 +4285,7 @@
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G47" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S77" activeCellId="1" sqref="T2:X39 S77"/>
+      <selection pane="topLeft" activeCell="S77" activeCellId="0" sqref="S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7487,8 +7487,8 @@
   </sheetPr>
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2:X39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10096,64 +10096,64 @@
       </c>
     </row>
     <row r="67" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="0" t="n">
+      <c r="A67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="4" t="n">
         <v>6804</v>
       </c>
-      <c r="G67" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="0" t="n">
+      <c r="G67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67" s="4" t="n">
         <v>6804</v>
       </c>
-      <c r="N67" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="O67" s="0" t="n">
+      <c r="N67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O67" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="P67" s="0" t="n">
+      <c r="P67" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="Q67" s="0" t="n">
+      <c r="Q67" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="R67" s="0" t="n">
+      <c r="R67" s="4" t="n">
         <v>6804</v>
       </c>
-      <c r="T67" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U67" s="0" t="n">
+      <c r="T67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U67" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="V67" s="0" t="n">
+      <c r="V67" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="W67" s="0" t="n">
+      <c r="W67" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="X67" s="0" t="n">
+      <c r="X67" s="4" t="n">
         <v>6804</v>
       </c>
     </row>
@@ -10346,64 +10346,64 @@
       </c>
     </row>
     <row r="74" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="0" t="n">
+      <c r="A74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="4" t="n">
         <v>0.76</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="4" t="n">
         <v>593</v>
       </c>
-      <c r="G74" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="0" t="n">
+      <c r="G74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="I74" s="4" t="n">
         <v>0.81</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="J74" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74" s="4" t="n">
         <v>593</v>
       </c>
-      <c r="N74" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="O74" s="0" t="n">
+      <c r="N74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O74" s="4" t="n">
         <v>0.76</v>
       </c>
-      <c r="P74" s="0" t="n">
+      <c r="P74" s="4" t="n">
         <v>0.69</v>
       </c>
-      <c r="Q74" s="0" t="n">
+      <c r="Q74" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="R74" s="0" t="n">
+      <c r="R74" s="4" t="n">
         <v>593</v>
       </c>
-      <c r="T74" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U74" s="0" t="n">
+      <c r="T74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U74" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="V74" s="0" t="n">
+      <c r="V74" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="W74" s="0" t="n">
+      <c r="W74" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="X74" s="0" t="n">
+      <c r="X74" s="4" t="n">
         <v>593</v>
       </c>
     </row>
@@ -10599,64 +10599,64 @@
       </c>
     </row>
     <row r="81" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="0" t="n">
+      <c r="A81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="4" t="n">
         <v>6211</v>
       </c>
-      <c r="G81" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="0" t="n">
+      <c r="G81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="I81" s="0" t="n">
+      <c r="I81" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="J81" s="0" t="n">
+      <c r="J81" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="K81" s="4" t="n">
         <v>6211</v>
       </c>
-      <c r="N81" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="0" t="n">
+      <c r="N81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="P81" s="0" t="n">
+      <c r="P81" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="Q81" s="0" t="n">
+      <c r="Q81" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="R81" s="0" t="n">
+      <c r="R81" s="4" t="n">
         <v>6211</v>
       </c>
-      <c r="T81" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="0" t="n">
+      <c r="T81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="V81" s="0" t="n">
+      <c r="V81" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="W81" s="0" t="n">
+      <c r="W81" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="X81" s="0" t="n">
+      <c r="X81" s="4" t="n">
         <v>6211</v>
       </c>
     </row>

--- a/output/analysis/dnn_results.xlsx
+++ b/output/analysis/dnn_results.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="1" sqref="N2:R39 G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+      <selection pane="topLeft" activeCell="C50" activeCellId="1" sqref="N2:R39 C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4285,7 +4285,7 @@
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G47" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S77" activeCellId="0" sqref="S77"/>
+      <selection pane="topLeft" activeCell="S77" activeCellId="1" sqref="N2:R39 S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7487,8 +7487,8 @@
   </sheetPr>
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7618,16 +7618,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.65</v>
+        <v>0.56</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>402</v>
+        <v>1378</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="0" t="n">
@@ -7683,16 +7683,16 @@
         <v>2</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="P4" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q4" s="0" t="n">
         <v>0.97</v>
       </c>
-      <c r="Q4" s="0" t="n">
-        <v>0.95</v>
-      </c>
       <c r="R4" s="0" t="n">
-        <v>3431</v>
+        <v>19031</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="0" t="n">
@@ -7748,16 +7748,16 @@
         <v>5</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>3833</v>
+        <v>20409</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="0" t="s">
@@ -7893,16 +7893,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="0" t="n">
@@ -7962,13 +7962,13 @@
         <v>0.93</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="S11" s="8"/>
       <c r="T11" s="0" t="n">
@@ -8022,16 +8022,16 @@
         <v>5</v>
       </c>
       <c r="O12" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="P12" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0.79</v>
-      </c>
       <c r="R12" s="0" t="n">
-        <v>1806</v>
+        <v>1841</v>
       </c>
       <c r="T12" s="0" t="s">
         <v>5</v>
@@ -8151,16 +8151,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>117</v>
+        <v>1054</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>2</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>0.97</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>1910</v>
+        <v>17514</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>2</v>
@@ -8275,16 +8275,16 @@
         <v>5</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>0.56</v>
+        <v>0.62</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>2027</v>
+        <v>18568</v>
       </c>
       <c r="T19" s="0" t="s">
         <v>5</v>
@@ -8404,16 +8404,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>0.57</v>
+        <v>0.37</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>165</v>
+        <v>466</v>
       </c>
       <c r="S23" s="8"/>
       <c r="T23" s="0" t="n">
@@ -8467,16 +8467,16 @@
         <v>2</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>1113</v>
+        <v>6338</v>
       </c>
       <c r="T24" s="0" t="n">
         <v>2</v>
@@ -8528,20 +8528,20 @@
       </c>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
-      <c r="N25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P25" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Q25" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="R25" s="4" t="n">
-        <v>1278</v>
+      <c r="N25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>6804</v>
       </c>
       <c r="S25" s="0"/>
       <c r="T25" s="0" t="s">
@@ -8698,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>0.67</v>
+        <v>0.56</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="0" t="n">
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0.96</v>
@@ -8772,7 +8772,7 @@
         <v>0.93</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="0" t="n">
@@ -8824,20 +8824,20 @@
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="P32" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q32" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R32" s="4" t="n">
-        <v>628</v>
+      <c r="N32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>593</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="0" t="s">
@@ -8976,16 +8976,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.25</v>
+        <v>0.57</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>36</v>
+        <v>376</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0.97</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>614</v>
+        <v>5835</v>
       </c>
       <c r="T38" s="0" t="n">
         <v>2</v>
@@ -9096,20 +9096,20 @@
       <c r="K39" s="4" t="n">
         <v>650</v>
       </c>
-      <c r="N39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O39" s="4" t="n">
+      <c r="N39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P39" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="P39" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q39" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R39" s="4" t="n">
-        <v>650</v>
+      <c r="Q39" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>6211</v>
       </c>
       <c r="T39" s="0" t="s">
         <v>5</v>

--- a/output/analysis/dnn_results.xlsx
+++ b/output/analysis/dnn_results.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="1" sqref="N2:R39 G26"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G2:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="1" sqref="N2:R39 C50"/>
+      <selection pane="topLeft" activeCell="C50" activeCellId="1" sqref="G2:K39 C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4285,7 +4285,7 @@
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G47" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S77" activeCellId="1" sqref="N2:R39 S77"/>
+      <selection pane="topLeft" activeCell="S77" activeCellId="1" sqref="G2:K39 S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7487,8 +7487,8 @@
   </sheetPr>
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2:R39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7601,16 +7601,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>402</v>
+        <v>1378</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -7666,16 +7666,16 @@
         <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>0.97</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0.96</v>
-      </c>
       <c r="K4" s="0" t="n">
-        <v>3431</v>
+        <v>19031</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -7734,13 +7734,13 @@
         <v>0.8</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3833</v>
+        <v>20409</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -7876,16 +7876,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -7948,10 +7948,10 @@
         <v>0.95</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -8007,16 +8007,16 @@
         <v>5</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>1806</v>
+        <v>1841</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>5</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>117</v>
+        <v>1054</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>0</v>
@@ -8201,13 +8201,13 @@
         <v>0.95</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0.97</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>1910</v>
+        <v>17514</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>2</v>
@@ -8260,16 +8260,16 @@
         <v>5</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.56</v>
+        <v>0.57</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>2027</v>
+        <v>18568</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>5</v>
@@ -8387,16 +8387,16 @@
         <v>0</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.62</v>
+        <v>0.37</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>165</v>
+        <v>466</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -8452,16 +8452,16 @@
         <v>2</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="I24" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J24" s="0" t="n">
         <v>0.97</v>
       </c>
-      <c r="J24" s="0" t="n">
-        <v>0.95</v>
-      </c>
       <c r="K24" s="0" t="n">
-        <v>1113</v>
+        <v>6338</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>2</v>
@@ -8511,20 +8511,20 @@
         <v>6804</v>
       </c>
       <c r="F25" s="0"/>
-      <c r="G25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="G25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="J25" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K25" s="4" t="n">
-        <v>1278</v>
+      <c r="I25" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>6804</v>
       </c>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
@@ -8681,16 +8681,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -8746,16 +8746,16 @@
         <v>2</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0.93</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -8807,20 +8807,20 @@
       <c r="E32" s="0" t="n">
         <v>593</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="J32" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K32" s="4" t="n">
-        <v>628</v>
+      <c r="G32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>593</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -8961,16 +8961,16 @@
         <v>0</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>36</v>
+        <v>376</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>0</v>
@@ -9026,13 +9026,13 @@
         <v>0.95</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0.97</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>614</v>
+        <v>5835</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>2</v>
@@ -9081,20 +9081,20 @@
       <c r="E39" s="0" t="n">
         <v>6211</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I39" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K39" s="4" t="n">
-        <v>650</v>
+      <c r="G39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>6211</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>5</v>

--- a/output/analysis/dnn_results.xlsx
+++ b/output/analysis/dnn_results.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="c" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="tdsmall" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="tdcb" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="tdca" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="td" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="27">
   <si>
     <t xml:space="preserve">lstm, train word embedding</t>
   </si>
@@ -564,7 +565,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G2:K39"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="4" sqref="11:11 23:23 36:36 48:48 G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2114,7 +2115,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="1" sqref="G2:K39 C50"/>
+      <selection pane="topLeft" activeCell="C50" activeCellId="4" sqref="11:11 23:23 36:36 48:48 C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4285,7 +4286,7 @@
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G47" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S77" activeCellId="1" sqref="G2:K39 S77"/>
+      <selection pane="topLeft" activeCell="S77" activeCellId="4" sqref="11:11 23:23 36:36 48:48 S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7487,8 +7488,8 @@
   </sheetPr>
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:K39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="4" sqref="11:11 23:23 36:36 48:48 A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10669,4 +10670,2175 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AI48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="3" sqref="11:11 23:23 36:36 48:48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>17518</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>1892</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>1892</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>18587</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>632</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>632</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>6196</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>670</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>670</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>17518</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>17518</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>17518</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>18587</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>18587</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>18587</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>6196</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>6196</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="Y26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI27" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="U28" s="2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W28" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AH28" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>17518</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>1892</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>1892</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W29" s="2" t="n">
+        <v>1892</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>1892</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AG29" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AH29" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AI29" s="0" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>18587</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T30" s="2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U30" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W30" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AE30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF30" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AG30" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AH30" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AI30" s="0" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="Y32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE32" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI33" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W34" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG34" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH34" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AI34" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>632</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>632</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W35" s="2" t="n">
+        <v>632</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AG35" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AH35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AI35" s="0" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>6196</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>670</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O36" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P36" s="4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="Q36" s="4" t="n">
+        <v>670</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="U36" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="V36" s="4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="W36" s="4" t="n">
+        <v>670</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AA36" s="4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AB36" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AC36" s="4" t="n">
+        <v>670</v>
+      </c>
+      <c r="AE36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF36" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AG36" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AH36" s="4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AI36" s="4" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>17518</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>17518</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>17518</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>18587</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>18587</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>18587</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>6196</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K48" s="4" t="n">
+        <v>6196</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O48" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P48" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q48" s="4" t="n">
+        <v>6196</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/output/analysis/dnn_results.xlsx
+++ b/output/analysis/dnn_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="c" sheetId="1" state="visible" r:id="rId2"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="4" sqref="11:11 23:23 36:36 48:48 G26"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2115,7 +2115,7 @@
   <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="4" sqref="11:11 23:23 36:36 48:48 C50"/>
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4286,7 +4286,7 @@
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G47" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S77" activeCellId="4" sqref="11:11 23:23 36:36 48:48 S77"/>
+      <selection pane="topLeft" activeCell="S77" activeCellId="0" sqref="S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7488,8 +7488,8 @@
   </sheetPr>
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="4" sqref="11:11 23:23 36:36 48:48 A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F49" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8496,68 +8496,64 @@
       </c>
     </row>
     <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="0" t="n">
+      <c r="A25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="9" t="n">
         <v>0.67</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="9" t="n">
         <v>0.69</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="9" t="n">
         <v>6804</v>
       </c>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="0" t="n">
+      <c r="G25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="9" t="n">
         <v>0.75</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="9" t="n">
         <v>0.63</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="9" t="n">
         <v>0.67</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="9" t="n">
         <v>6804</v>
       </c>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
-      <c r="N25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" s="0" t="n">
+      <c r="N25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="9" t="n">
         <v>0.78</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="9" t="n">
         <v>0.62</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="9" t="n">
         <v>0.67</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="9" t="n">
         <v>6804</v>
       </c>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U25" s="0" t="n">
+      <c r="T25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" s="9" t="n">
         <v>0.77</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25" s="9" t="n">
         <v>0.65</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="W25" s="9" t="n">
         <v>0.69</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="X25" s="9" t="n">
         <v>6804</v>
       </c>
     </row>
@@ -8793,67 +8789,67 @@
       </c>
     </row>
     <row r="32" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="0" t="n">
+      <c r="A32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="9" t="n">
         <v>0.76</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="9" t="n">
         <v>0.81</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="9" t="n">
         <v>0.78</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="9" t="n">
         <v>593</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="0" t="n">
+      <c r="G32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="9" t="n">
         <v>0.77</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="9" t="n">
         <v>0.77</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="9" t="n">
         <v>0.77</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="9" t="n">
         <v>593</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="0" t="n">
+      <c r="N32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="9" t="n">
         <v>0.79</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32" s="9" t="n">
         <v>0.72</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="Q32" s="9" t="n">
         <v>0.75</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="R32" s="9" t="n">
         <v>593</v>
       </c>
       <c r="S32" s="10"/>
-      <c r="T32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="0" t="n">
+      <c r="T32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="9" t="n">
         <v>0.78</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="V32" s="9" t="n">
         <v>0.78</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="W32" s="9" t="n">
         <v>0.78</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="X32" s="9" t="n">
         <v>593</v>
       </c>
     </row>
@@ -9067,64 +9063,64 @@
       </c>
     </row>
     <row r="39" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="0" t="n">
+      <c r="A39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9" t="n">
         <v>0.68</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="9" t="n">
         <v>0.63</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="9" t="n">
         <v>0.65</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="9" t="n">
         <v>6211</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="0" t="n">
+      <c r="G39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="9" t="n">
         <v>0.74</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="9" t="n">
         <v>0.59</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="9" t="n">
         <v>0.62</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="9" t="n">
         <v>6211</v>
       </c>
-      <c r="N39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="O39" s="0" t="n">
+      <c r="N39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39" s="9" t="n">
         <v>0.76</v>
       </c>
-      <c r="P39" s="0" t="n">
+      <c r="P39" s="9" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q39" s="0" t="n">
+      <c r="Q39" s="9" t="n">
         <v>0.64</v>
       </c>
-      <c r="R39" s="0" t="n">
+      <c r="R39" s="9" t="n">
         <v>6211</v>
       </c>
-      <c r="T39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="U39" s="0" t="n">
+      <c r="T39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U39" s="9" t="n">
         <v>0.76</v>
       </c>
-      <c r="V39" s="0" t="n">
+      <c r="V39" s="9" t="n">
         <v>0.62</v>
       </c>
-      <c r="W39" s="0" t="n">
+      <c r="W39" s="9" t="n">
         <v>0.66</v>
       </c>
-      <c r="X39" s="0" t="n">
+      <c r="X39" s="9" t="n">
         <v>6211</v>
       </c>
     </row>
@@ -10679,8 +10675,8 @@
   </sheetPr>
   <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="3" sqref="11:11 23:23 36:36 48:48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
